--- a/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.packaging` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.packaging` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,7 +340,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.identifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.identifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.identifier` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.identifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -424,7 +424,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.type` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.type` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.type` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -457,7 +457,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.count` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.count` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.count` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -490,7 +490,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.distributor` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.distributor` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.distributor` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.distributor` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.id</t>
@@ -512,7 +512,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.distributor.name` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor.name` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.distributor.name` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:name.id</t>
@@ -552,7 +552,8 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.distributor.organizationReference` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor.organizationReference` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.packaging.distributor.organizationReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceDefinition.packaging.distributor.organizationReference` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:organizationReference.id</t>
@@ -604,7 +605,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.udiDeviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.udiDeviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.udiDeviceIdentifier` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.udiDeviceIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:udiDeviceIdentifier.id</t>
@@ -636,7 +637,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.packaging` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
 Element `DeviceDefinition.packaging.packaging` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.packaging` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.packaging.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.id</t>
@@ -988,7 +989,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="183.18359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.packaging` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,8 +339,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.identifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.identifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.identifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.identifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -387,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.identifier</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,8 +425,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.type` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.type` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.type` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -434,6 +435,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -456,8 +460,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.count` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.count` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -467,6 +470,9 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -489,8 +495,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.distributor` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.distributor` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.distributor` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.id</t>
@@ -512,7 +517,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.distributor.name` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor.name` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.distributor.name` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:name.id</t>
@@ -531,6 +536,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.distributor.name</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:name.value[x]</t>
@@ -553,7 +561,7 @@
   <si>
     <t>Element `DeviceDefinition.packaging.distributor.organizationReference` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.packaging.distributor.organizationReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceDefinition.packaging.distributor.organizationReference` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.distributor.organizationReference` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:organizationReference.id</t>
@@ -563,6 +571,9 @@
   </si>
   <si>
     <t>Extension.extension:distributor.extension:organizationReference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.distributor.organizationReference</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:organizationReference.value[x]</t>
@@ -604,8 +615,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.udiDeviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.udiDeviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.udiDeviceIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.udiDeviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:udiDeviceIdentifier.id</t>
@@ -636,8 +646,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.packaging.packaging` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.packaging` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.packaging.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.packaging.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.id</t>
@@ -1795,7 +1804,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1837,7 +1846,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1852,15 +1861,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1883,7 +1892,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1940,7 +1949,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1952,21 +1961,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1991,14 +2000,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2067,7 +2076,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2170,7 +2179,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2275,7 +2284,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2318,7 +2327,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2360,7 +2369,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2375,15 +2384,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2406,13 +2415,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2463,7 +2472,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2475,21 +2484,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2514,14 +2523,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2590,7 +2599,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2693,7 +2702,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2798,7 +2807,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2841,7 +2850,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2883,7 +2892,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2898,15 +2907,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2929,13 +2938,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2986,7 +2995,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2998,21 +3007,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3037,14 +3046,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3113,7 +3122,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3216,7 +3225,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3319,13 +3328,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3350,14 +3359,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3426,10 +3435,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3529,10 +3538,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3634,10 +3643,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3677,7 +3686,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3719,7 +3728,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3734,15 +3743,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3768,10 +3777,10 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3822,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3834,21 +3843,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3873,14 +3882,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3949,10 +3958,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4052,10 +4061,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4157,10 +4166,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4200,7 +4209,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4242,7 +4251,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4257,15 +4266,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4288,13 +4297,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4345,7 +4354,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4357,15 +4366,15 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4408,7 +4417,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4450,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4465,15 +4474,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4496,13 +4505,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4553,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4565,21 +4574,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4604,14 +4613,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4680,7 +4689,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4888,7 +4897,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4931,7 +4940,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4973,7 +4982,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -4988,15 +4997,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5019,13 +5028,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5076,7 +5085,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5088,21 +5097,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5127,14 +5136,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5203,7 +5212,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5306,7 +5315,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5411,7 +5420,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5496,7 +5505,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5511,15 +5520,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5542,13 +5551,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5599,7 +5608,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5611,18 +5620,18 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5704,7 +5713,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -5719,15 +5728,15 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5750,13 +5759,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5807,7 +5816,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -5819,10 +5828,10 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -579,7 +579,7 @@
     <t>Extension.extension:distributor.extension:organizationReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.packaging.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The business identifier of the packaged medication.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.identifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.identifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.identifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.identifier</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>A code that defines the specific type of packaging.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.type` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.type` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -435,9 +430,6 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -459,8 +451,7 @@
     <t>The number of items contained in the package (devices or sub-packages).</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.count` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -470,9 +461,6 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -494,8 +482,7 @@
     <t>An organization that distributes the packaged device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.distributor` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.distributor` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.id</t>
@@ -516,8 +503,7 @@
     <t>Distributor's human-readable name.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.distributor.name` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
-Element `DeviceDefinition.packaging.distributor.name` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.distributor.name` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:distributor.extension:name.id</t>
@@ -538,9 +524,6 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.distributor.name</t>
-  </si>
-  <si>
     <t>Extension.extension:distributor.extension:name.value[x]</t>
   </si>
   <si>
@@ -559,8 +542,7 @@
     <t>Distributor as an Organization resource.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.distributor.organizationReference` is part of an existing definition because parent element `DeviceDefinition.packaging.distributor` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.packaging.distributor.organizationReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.packaging.distributor.organizationReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `DeviceDefinition.packaging.distributor.organizationReference` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
@@ -573,20 +555,14 @@
     <t>Extension.extension:distributor.extension:organizationReference.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.distributor.organizationReference</t>
-  </si>
-  <si>
     <t>Extension.extension:distributor.extension:organizationReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
     <t>Extension.extension:distributor.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging.distributor</t>
   </si>
   <si>
     <t>Extension.extension:distributor.value[x]</t>
@@ -614,8 +590,7 @@
     <t>Unique Device Identifier (UDI) Barcode string on the packaging.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.udiDeviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.udiDeviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.udiDeviceIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:udiDeviceIdentifier.id</t>
@@ -645,8 +620,7 @@
     <t>Allows packages within packages.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging.packaging` is part of an existing definition because parent element `DeviceDefinition.packaging` requires a cross-version extension.
-Element `DeviceDefinition.packaging.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.id</t>
@@ -1804,72 +1778,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1892,7 +1866,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1949,33 +1923,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2000,14 +1974,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2076,7 +2050,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2179,7 +2153,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2284,7 +2258,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2327,7 +2301,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2369,30 +2343,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2415,13 +2389,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2472,33 +2446,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2523,14 +2497,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2599,7 +2573,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2702,7 +2676,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2807,7 +2781,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2850,7 +2824,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2892,30 +2866,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2938,13 +2912,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2995,33 +2969,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3046,14 +3020,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3122,7 +3096,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3225,7 +3199,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3328,13 +3302,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3359,14 +3333,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3435,10 +3409,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3538,10 +3512,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3643,10 +3617,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3686,7 +3660,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3728,30 +3702,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3777,10 +3751,10 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3831,33 +3805,33 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3882,14 +3856,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3958,10 +3932,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4061,10 +4035,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4166,10 +4140,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4209,7 +4183,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4251,30 +4225,30 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4297,13 +4271,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4354,27 +4328,27 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4417,7 +4391,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4459,30 +4433,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4505,13 +4479,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4562,33 +4536,33 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4613,14 +4587,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4689,7 +4663,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4792,7 +4766,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4897,7 +4871,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4940,7 +4914,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4982,30 +4956,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5028,13 +5002,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5085,33 +5059,33 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5136,14 +5110,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5186,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5315,7 +5289,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5420,7 +5394,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5505,30 +5479,30 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5551,13 +5525,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5608,30 +5582,30 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5713,30 +5687,30 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5759,13 +5733,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5816,22 +5790,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
